--- a/Excel Data Analysis/Section#04/0 - Creating Dataset.xlsx
+++ b/Excel Data Analysis/Section#04/0 - Creating Dataset.xlsx
@@ -551,19 +551,19 @@
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="str">
         <f ca="1">VLOOKUP(B6,$L$6:$M$10,2)</f>
-        <v>Comedy</v>
+        <v>Action</v>
       </c>
       <c r="D6">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
         <f ca="1">VLOOKUP(D6,$N$6:$O$9,2)</f>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F6">
         <f ca="1">RANDBETWEEN(1,2)</f>
@@ -575,7 +575,7 @@
       </c>
       <c r="H6">
         <f ca="1">RANDBETWEEN(2000,2020)</f>
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -593,31 +593,31 @@
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" ref="B7:B70" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ref="C7:C70" ca="1" si="1">VLOOKUP(B7,$L$6:$M$10,2)</f>
-        <v>Action</v>
+        <v>Thriller</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:D70" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ref="E7:E70" ca="1" si="3">VLOOKUP(D7,$N$6:$O$9,2)</f>
-        <v>India</v>
+        <v>America</v>
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F70" ca="1" si="4">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ref="G7:G70" ca="1" si="5">IF(F7=1,"Yes","No")</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H70" ca="1" si="6">RANDBETWEEN(2000,2020)</f>
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -635,11 +635,11 @@
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thriller</v>
+        <v>Comedy</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
@@ -659,7 +659,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="6"/>
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -677,11 +677,11 @@
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Horror</v>
+        <v>Comedy</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
@@ -693,15 +693,15 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="6"/>
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -727,11 +727,11 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Pakistan</v>
+        <v>America</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="4"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="6"/>
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -763,11 +763,11 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UK</v>
+        <v>Pakistan</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="4"/>
@@ -779,7 +779,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="6"/>
-        <v>2001</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -809,25 +809,25 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="6"/>
-        <v>2000</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Comedy</v>
+        <v>Thriller</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Pakistan</v>
+        <v>India</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="4"/>
@@ -839,25 +839,25 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="6"/>
-        <v>2006</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Action</v>
+        <v>Comedy</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>India</v>
+        <v>Pakistan</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="4"/>
@@ -869,77 +869,77 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="6"/>
-        <v>2000</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thriller</v>
+        <v>Horror</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>India</v>
+        <v>Pakistan</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="6"/>
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thriller</v>
+        <v>Drama</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>India</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="6"/>
-        <v>2012</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Action</v>
+        <v>Thriller</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
@@ -959,25 +959,25 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="6"/>
-        <v>2018</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Action</v>
+        <v>Horror</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="4"/>
@@ -989,77 +989,77 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="6"/>
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thriller</v>
+        <v>Comedy</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="6"/>
-        <v>2003</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Action</v>
+        <v>Horror</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>Pakistan</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="6"/>
-        <v>2013</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Drama</v>
+        <v>Thriller</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
@@ -1071,55 +1071,55 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
-        <v>2012</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thriller</v>
+        <v>Comedy</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>UK</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="6"/>
-        <v>2004</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Horror</v>
+        <v>Action</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
@@ -1139,17 +1139,17 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="6"/>
-        <v>2007</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Action</v>
+        <v>Drama</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
@@ -1169,55 +1169,55 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="6"/>
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Horror</v>
+        <v>Drama</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>India</v>
+        <v>America</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="6"/>
-        <v>2012</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Comedy</v>
+        <v>Thriller</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>UK</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="4"/>
@@ -1229,37 +1229,37 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="6"/>
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Drama</v>
+        <v>Thriller</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="6"/>
-        <v>2019</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="6"/>
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thriller</v>
+        <v>Comedy</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
@@ -1311,45 +1311,45 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="6"/>
-        <v>2017</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Action</v>
+        <v>Thriller</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>Pakistan</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="6"/>
-        <v>2011</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1363,131 +1363,131 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="6"/>
-        <v>2019</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Horror</v>
+        <v>Thriller</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Horror</v>
+        <v>Drama</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Pakistan</v>
+        <v>India</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="6"/>
-        <v>2009</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Horror</v>
+        <v>Drama</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>India</v>
+        <v>Pakistan</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="6"/>
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Horror</v>
+        <v>Thriller</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>UK</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="4"/>
@@ -1499,17 +1499,17 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="6"/>
-        <v>2010</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thriller</v>
+        <v>Drama</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
@@ -1521,15 +1521,15 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="6"/>
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -1543,41 +1543,41 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Pakistan</v>
+        <v>America</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="6"/>
-        <v>2011</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Comedy</v>
+        <v>Horror</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>Pakistan</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="4"/>
@@ -1589,47 +1589,47 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="6"/>
-        <v>2004</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Drama</v>
+        <v>Action</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>UK</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Comedy</v>
+        <v>Action</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
@@ -1649,25 +1649,25 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="6"/>
-        <v>2019</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Comedy</v>
+        <v>Drama</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>UK</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="4"/>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="6"/>
-        <v>2001</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1693,11 +1693,11 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="4"/>
@@ -1709,25 +1709,25 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="6"/>
-        <v>2004</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Drama</v>
+        <v>Thriller</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>India</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="4"/>
@@ -1739,157 +1739,157 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="6"/>
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Horror</v>
+        <v>Comedy</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UK</v>
+        <v>Pakistan</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="6"/>
-        <v>2019</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thriller</v>
+        <v>Comedy</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>UK</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="6"/>
-        <v>2003</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Comedy</v>
+        <v>Thriller</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>India</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="6"/>
-        <v>2001</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Horror</v>
+        <v>Action</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>India</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="6"/>
-        <v>2016</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Drama</v>
+        <v>Comedy</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>India</v>
+        <v>Pakistan</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="6"/>
-        <v>2003</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -1903,11 +1903,11 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="4"/>
@@ -1919,17 +1919,17 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="6"/>
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Action</v>
+        <v>Drama</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
@@ -1955,19 +1955,19 @@
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Drama</v>
+        <v>Action</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
@@ -1979,25 +1979,25 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="6"/>
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Drama</v>
+        <v>Action</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
@@ -2009,25 +2009,25 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="6"/>
-        <v>2017</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thriller</v>
+        <v>Comedy</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="6"/>
-        <v>2016</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Drama</v>
+        <v>Thriller</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>UK</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="6"/>
-        <v>2002</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Drama</v>
+        <v>Thriller</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="2"/>
@@ -2099,17 +2099,17 @@
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="6"/>
-        <v>2005</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Action</v>
+        <v>Comedy</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="2"/>
@@ -2121,25 +2121,25 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="6"/>
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Drama</v>
+        <v>Comedy</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
@@ -2159,25 +2159,25 @@
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="6"/>
-        <v>2014</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Action</v>
+        <v>Comedy</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>India</v>
+        <v>America</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
@@ -2189,55 +2189,55 @@
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="6"/>
-        <v>2004</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Drama</v>
+        <v>Action</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>America</v>
+        <v>Pakistan</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="6"/>
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Action</v>
+        <v>Drama</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
@@ -2249,37 +2249,37 @@
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="6"/>
-        <v>2011</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Comedy</v>
+        <v>Thriller</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>India</v>
+        <v>Pakistan</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="6"/>
-        <v>2002</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -2301,15 +2301,15 @@
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="6"/>
-        <v>2009</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -2331,25 +2331,25 @@
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="6"/>
-        <v>2000</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Comedy</v>
+        <v>Drama</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
@@ -2369,17 +2369,17 @@
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="6"/>
-        <v>2002</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Drama</v>
+        <v>Horror</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
@@ -2399,17 +2399,17 @@
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="6"/>
-        <v>2005</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Drama</v>
+        <v>Action</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="2"/>
@@ -2429,37 +2429,37 @@
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Drama</v>
+        <v>Thriller</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>India</v>
+        <v>America</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="6"/>
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -2473,11 +2473,11 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UK</v>
+        <v>America</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="4"/>
@@ -2495,79 +2495,79 @@
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thriller</v>
+        <v>Comedy</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>India</v>
+        <v>Pakistan</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>2013</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Comedy</v>
+        <v>Thriller</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Pakistan</v>
+        <v>India</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>2001</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71">
         <f t="shared" ref="B71:B134" ca="1" si="7">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" ref="C71:C134" ca="1" si="8">VLOOKUP(B71,$L$6:$M$10,2)</f>
-        <v>Action</v>
+        <v>Comedy</v>
       </c>
       <c r="D71">
         <f t="shared" ref="D71:D134" ca="1" si="9">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" ref="E71:E134" ca="1" si="10">VLOOKUP(D71,$N$6:$O$9,2)</f>
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="F71">
         <f t="shared" ref="F71:F134" ca="1" si="11">RANDBETWEEN(1,2)</f>
@@ -2579,55 +2579,55 @@
       </c>
       <c r="H71">
         <f t="shared" ref="H71:H134" ca="1" si="13">RANDBETWEEN(2000,2020)</f>
-        <v>2009</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Comedy</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="13"/>
-        <v>2011</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Drama</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Pakistan</v>
+        <v>America</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="11"/>
@@ -2639,85 +2639,85 @@
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="13"/>
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Thriller</v>
+        <v>Drama</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>America</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="13"/>
-        <v>2008</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Comedy</v>
+        <v>Drama</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Pakistan</v>
+        <v>India</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="13"/>
-        <v>2009</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Comedy</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>America</v>
+        <v>Pakistan</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="11"/>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="13"/>
-        <v>2013</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
@@ -2743,19 +2743,19 @@
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="13"/>
@@ -2773,33 +2773,33 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Pakistan</v>
+        <v>America</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="13"/>
-        <v>2010</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Thriller</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="9"/>
@@ -2819,47 +2819,47 @@
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="13"/>
-        <v>2013</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Thriller</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>India</v>
+        <v>America</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="13"/>
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Drama</v>
+        <v>Horror</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="9"/>
@@ -2871,33 +2871,33 @@
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="13"/>
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Thriller</v>
+        <v>Horror</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>America</v>
+        <v>India</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="11"/>
@@ -2909,47 +2909,47 @@
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="13"/>
-        <v>2016</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Comedy</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>India</v>
+        <v>Pakistan</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="13"/>
-        <v>2003</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Thriller</v>
+        <v>Drama</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="9"/>
@@ -2969,55 +2969,55 @@
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="13"/>
-        <v>2009</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Comedy</v>
+        <v>Thriller</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="13"/>
-        <v>2016</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Comedy</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>America</v>
+        <v>Pakistan</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="11"/>
@@ -3029,37 +3029,37 @@
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="13"/>
-        <v>2006</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Comedy</v>
+        <v>Drama</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Pakistan</v>
+        <v>America</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="13"/>
-        <v>2008</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -3073,63 +3073,63 @@
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Pakistan</v>
+        <v>America</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="13"/>
-        <v>2017</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Comedy</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>India</v>
+        <v>Pakistan</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="13"/>
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Action</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="9"/>
@@ -3149,85 +3149,85 @@
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="13"/>
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Drama</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="13"/>
-        <v>2014</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Drama</v>
+        <v>Horror</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Pakistan</v>
+        <v>America</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="13"/>
-        <v>2015</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Comedy</v>
+        <v>Action</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Pakistan</v>
+        <v>India</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="11"/>
@@ -3239,137 +3239,137 @@
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="13"/>
-        <v>2008</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Comedy</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>America</v>
+        <v>India</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="13"/>
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Thriller</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="13"/>
-        <v>2000</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Drama</v>
+        <v>Horror</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>America</v>
+        <v>Pakistan</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="13"/>
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Thriller</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>America</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="13"/>
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Drama</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="9"/>
@@ -3381,25 +3381,25 @@
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="13"/>
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Thriller</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="9"/>
@@ -3411,33 +3411,33 @@
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="13"/>
-        <v>2020</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Drama</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>America</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="11"/>
@@ -3449,55 +3449,55 @@
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="13"/>
-        <v>2020</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Thriller</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>America</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="13"/>
-        <v>2008</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Comedy</v>
+        <v>Action</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>Pakistan</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="11"/>
@@ -3509,37 +3509,37 @@
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="13"/>
-        <v>2000</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Thriller</v>
+        <v>Action</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="13"/>
-        <v>2008</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -3553,41 +3553,41 @@
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Pakistan</v>
+        <v>India</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="13"/>
-        <v>2020</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Comedy</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>America</v>
+        <v>Pakistan</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="11"/>
@@ -3599,25 +3599,25 @@
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="13"/>
-        <v>2008</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Thriller</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="11"/>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="13"/>
-        <v>2017</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -3643,33 +3643,33 @@
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>America</v>
+        <v>Pakistan</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="13"/>
-        <v>2012</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Comedy</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="9"/>
@@ -3689,55 +3689,55 @@
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="13"/>
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Horror</v>
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>Pakistan</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="13"/>
-        <v>2000</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Drama</v>
+        <v>Comedy</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="11"/>
@@ -3749,17 +3749,17 @@
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="13"/>
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Action</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="9"/>
@@ -3779,25 +3779,25 @@
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="13"/>
-        <v>2014</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Drama</v>
+        <v>Action</v>
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>Pakistan</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="11"/>
@@ -3809,85 +3809,85 @@
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="13"/>
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Thriller</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>India</v>
+        <v>Pakistan</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="13"/>
-        <v>2014</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Thriller</v>
+        <v>Drama</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="13"/>
-        <v>2000</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Comedy</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>America</v>
+        <v>India</v>
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="11"/>
@@ -3899,77 +3899,77 @@
       </c>
       <c r="H115">
         <f t="shared" ca="1" si="13"/>
-        <v>2005</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Horror</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>America</v>
+        <v>UK</v>
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H116">
         <f t="shared" ca="1" si="13"/>
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Thriller</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Pakistan</v>
+        <v>India</v>
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H117">
         <f t="shared" ca="1" si="13"/>
-        <v>2013</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Drama</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="9"/>
@@ -3989,17 +3989,17 @@
       </c>
       <c r="H118">
         <f t="shared" ca="1" si="13"/>
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Thriller</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="9"/>
@@ -4011,11 +4011,11 @@
       </c>
       <c r="F119">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H119">
         <f t="shared" ca="1" si="13"/>
@@ -4025,11 +4025,11 @@
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Comedy</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="9"/>
@@ -4049,17 +4049,17 @@
       </c>
       <c r="H120">
         <f t="shared" ca="1" si="13"/>
-        <v>2002</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Comedy</v>
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="9"/>
@@ -4071,55 +4071,55 @@
       </c>
       <c r="F121">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H121">
         <f t="shared" ca="1" si="13"/>
-        <v>2006</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Comedy</v>
+        <v>Drama</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>India</v>
+        <v>Pakistan</v>
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H122">
         <f t="shared" ca="1" si="13"/>
-        <v>2014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Drama</v>
+        <v>Thriller</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="9"/>
@@ -4131,45 +4131,45 @@
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H123">
         <f t="shared" ca="1" si="13"/>
-        <v>2005</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Comedy</v>
+        <v>Action</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F124">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H124">
         <f t="shared" ca="1" si="13"/>
-        <v>2002</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F125">
         <f t="shared" ca="1" si="11"/>
@@ -4199,25 +4199,25 @@
       </c>
       <c r="H125">
         <f t="shared" ca="1" si="13"/>
-        <v>2005</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Action</v>
+        <v>Drama</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F126">
         <f t="shared" ca="1" si="11"/>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="H126">
         <f t="shared" ca="1" si="13"/>
-        <v>2002</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
@@ -4251,15 +4251,15 @@
       </c>
       <c r="F127">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H127">
         <f t="shared" ca="1" si="13"/>
-        <v>2012</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
@@ -4273,11 +4273,11 @@
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>UK</v>
+        <v>America</v>
       </c>
       <c r="F128">
         <f t="shared" ca="1" si="11"/>
@@ -4289,17 +4289,17 @@
       </c>
       <c r="H128">
         <f t="shared" ca="1" si="13"/>
-        <v>2010</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Comedy</v>
+        <v>Horror</v>
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="9"/>
@@ -4311,15 +4311,15 @@
       </c>
       <c r="F129">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H129">
         <f t="shared" ca="1" si="13"/>
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
@@ -4333,41 +4333,41 @@
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="F130">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H130">
         <f t="shared" ca="1" si="13"/>
-        <v>2008</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Horror</v>
+        <v>Thriller</v>
       </c>
       <c r="D131">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F131">
         <f t="shared" ca="1" si="11"/>
@@ -4379,25 +4379,25 @@
       </c>
       <c r="H131">
         <f t="shared" ca="1" si="13"/>
-        <v>2001</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Comedy</v>
+        <v>Horror</v>
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>America</v>
+        <v>UK</v>
       </c>
       <c r="F132">
         <f t="shared" ca="1" si="11"/>
@@ -4409,37 +4409,37 @@
       </c>
       <c r="H132">
         <f t="shared" ca="1" si="13"/>
-        <v>2006</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Drama</v>
+        <v>Action</v>
       </c>
       <c r="D133">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>America</v>
+        <v>India</v>
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H133">
         <f t="shared" ca="1" si="13"/>
-        <v>2009</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
@@ -4453,11 +4453,11 @@
       </c>
       <c r="D134">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>India</v>
+        <v>Pakistan</v>
       </c>
       <c r="F134">
         <f t="shared" ca="1" si="11"/>
@@ -4469,17 +4469,17 @@
       </c>
       <c r="H134">
         <f t="shared" ca="1" si="13"/>
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135">
         <f t="shared" ref="B135:B198" ca="1" si="14">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" ref="C135:C198" ca="1" si="15">VLOOKUP(B135,$L$6:$M$10,2)</f>
-        <v>Action</v>
+        <v>Thriller</v>
       </c>
       <c r="D135">
         <f t="shared" ref="D135:D198" ca="1" si="16">RANDBETWEEN(1,4)</f>
@@ -4491,33 +4491,33 @@
       </c>
       <c r="F135">
         <f t="shared" ref="F135:F198" ca="1" si="18">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" ref="G135:G198" ca="1" si="19">IF(F135=1,"Yes","No")</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H135">
         <f t="shared" ref="H135:H198" ca="1" si="20">RANDBETWEEN(2000,2020)</f>
-        <v>2000</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Action</v>
+        <v>Horror</v>
       </c>
       <c r="D136">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Pakistan</v>
+        <v>India</v>
       </c>
       <c r="F136">
         <f t="shared" ca="1" si="18"/>
@@ -4529,25 +4529,25 @@
       </c>
       <c r="H136">
         <f t="shared" ca="1" si="20"/>
-        <v>2000</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Action</v>
+        <v>Horror</v>
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="18"/>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="H137">
         <f t="shared" ca="1" si="20"/>
-        <v>2003</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
@@ -4573,11 +4573,11 @@
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Pakistan</v>
+        <v>India</v>
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="18"/>
@@ -4589,17 +4589,17 @@
       </c>
       <c r="H138">
         <f t="shared" ca="1" si="20"/>
-        <v>2018</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Drama</v>
+        <v>Thriller</v>
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="16"/>
@@ -4611,33 +4611,33 @@
       </c>
       <c r="F139">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H139">
         <f t="shared" ca="1" si="20"/>
-        <v>2001</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Comedy</v>
+        <v>Action</v>
       </c>
       <c r="D140">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>Pakistan</v>
       </c>
       <c r="F140">
         <f t="shared" ca="1" si="18"/>
@@ -4649,17 +4649,17 @@
       </c>
       <c r="H140">
         <f t="shared" ca="1" si="20"/>
-        <v>2004</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Action</v>
+        <v>Thriller</v>
       </c>
       <c r="D141">
         <f t="shared" ca="1" si="16"/>
@@ -4671,45 +4671,45 @@
       </c>
       <c r="F141">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H141">
         <f t="shared" ca="1" si="20"/>
-        <v>2017</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Drama</v>
+        <v>Thriller</v>
       </c>
       <c r="D142">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>Pakistan</v>
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H142">
         <f t="shared" ca="1" si="20"/>
-        <v>2020</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
@@ -4739,17 +4739,17 @@
       </c>
       <c r="H143">
         <f t="shared" ca="1" si="20"/>
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Horror</v>
+        <v>Thriller</v>
       </c>
       <c r="D144">
         <f t="shared" ca="1" si="16"/>
@@ -4761,15 +4761,15 @@
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G144" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H144">
         <f t="shared" ca="1" si="20"/>
-        <v>2020</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
@@ -4791,33 +4791,33 @@
       </c>
       <c r="F145">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G145" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H145">
         <f t="shared" ca="1" si="20"/>
-        <v>2013</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Comedy</v>
+        <v>Action</v>
       </c>
       <c r="D146">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>America</v>
       </c>
       <c r="F146">
         <f t="shared" ca="1" si="18"/>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="H146">
         <f t="shared" ca="1" si="20"/>
-        <v>2001</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="H147">
         <f t="shared" ca="1" si="20"/>
-        <v>2009</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
@@ -4881,33 +4881,33 @@
       </c>
       <c r="F148">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G148" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H148">
         <f t="shared" ca="1" si="20"/>
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Thriller</v>
+        <v>Action</v>
       </c>
       <c r="D149">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>Pakistan</v>
       </c>
       <c r="F149">
         <f t="shared" ca="1" si="18"/>
@@ -4919,25 +4919,25 @@
       </c>
       <c r="H149">
         <f t="shared" ca="1" si="20"/>
-        <v>2001</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Drama</v>
+        <v>Horror</v>
       </c>
       <c r="D150">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>America</v>
+        <v>UK</v>
       </c>
       <c r="F150">
         <f t="shared" ca="1" si="18"/>
@@ -4949,25 +4949,25 @@
       </c>
       <c r="H150">
         <f t="shared" ca="1" si="20"/>
-        <v>2016</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Thriller</v>
+        <v>Drama</v>
       </c>
       <c r="D151">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>America</v>
+        <v>UK</v>
       </c>
       <c r="F151">
         <f t="shared" ca="1" si="18"/>
@@ -4979,37 +4979,37 @@
       </c>
       <c r="H151">
         <f t="shared" ca="1" si="20"/>
-        <v>2014</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Action</v>
+        <v>Drama</v>
       </c>
       <c r="D152">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F152">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G152" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H152">
         <f t="shared" ca="1" si="20"/>
-        <v>2008</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
@@ -5031,33 +5031,33 @@
       </c>
       <c r="F153">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G153" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H153">
         <f t="shared" ca="1" si="20"/>
-        <v>2012</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Thriller</v>
+        <v>Comedy</v>
       </c>
       <c r="D154">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>Pakistan</v>
       </c>
       <c r="F154">
         <f t="shared" ca="1" si="18"/>
@@ -5069,37 +5069,37 @@
       </c>
       <c r="H154">
         <f t="shared" ca="1" si="20"/>
-        <v>2012</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Action</v>
+        <v>Horror</v>
       </c>
       <c r="D155">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>America</v>
+        <v>Pakistan</v>
       </c>
       <c r="F155">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G155" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H155">
         <f t="shared" ca="1" si="20"/>
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
@@ -5113,53 +5113,53 @@
       </c>
       <c r="D156">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Pakistan</v>
+        <v>America</v>
       </c>
       <c r="F156">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G156" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H156">
         <f t="shared" ca="1" si="20"/>
-        <v>2000</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Drama</v>
+        <v>Thriller</v>
       </c>
       <c r="D157">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>America</v>
       </c>
       <c r="F157">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G157" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H157">
         <f t="shared" ca="1" si="20"/>
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
@@ -5173,53 +5173,53 @@
       </c>
       <c r="D158">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Pakistan</v>
+        <v>India</v>
       </c>
       <c r="F158">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G158" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H158">
         <f t="shared" ca="1" si="20"/>
-        <v>2002</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Drama</v>
+        <v>Comedy</v>
       </c>
       <c r="D159">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>America</v>
+        <v>India</v>
       </c>
       <c r="F159">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G159" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H159">
         <f t="shared" ca="1" si="20"/>
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
@@ -5233,11 +5233,11 @@
       </c>
       <c r="D160">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Pakistan</v>
+        <v>America</v>
       </c>
       <c r="F160">
         <f t="shared" ca="1" si="18"/>
@@ -5249,25 +5249,25 @@
       </c>
       <c r="H160">
         <f t="shared" ca="1" si="20"/>
-        <v>2017</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Thriller</v>
+        <v>Horror</v>
       </c>
       <c r="D161">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F161">
         <f t="shared" ca="1" si="18"/>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="H161">
         <f t="shared" ca="1" si="20"/>
-        <v>2003</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
@@ -5293,11 +5293,11 @@
       </c>
       <c r="D162">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>India</v>
+        <v>Pakistan</v>
       </c>
       <c r="F162">
         <f t="shared" ca="1" si="18"/>
@@ -5309,25 +5309,25 @@
       </c>
       <c r="H162">
         <f t="shared" ca="1" si="20"/>
-        <v>2013</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Drama</v>
+        <v>Thriller</v>
       </c>
       <c r="D163">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>America</v>
+        <v>India</v>
       </c>
       <c r="F163">
         <f t="shared" ca="1" si="18"/>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="H163">
         <f t="shared" ca="1" si="20"/>
-        <v>2015</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
@@ -5353,11 +5353,11 @@
       </c>
       <c r="D164">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F164">
         <f t="shared" ca="1" si="18"/>
@@ -5369,25 +5369,25 @@
       </c>
       <c r="H164">
         <f t="shared" ca="1" si="20"/>
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Thriller</v>
+        <v>Drama</v>
       </c>
       <c r="D165">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>America</v>
       </c>
       <c r="F165">
         <f t="shared" ca="1" si="18"/>
@@ -5399,25 +5399,25 @@
       </c>
       <c r="H165">
         <f t="shared" ca="1" si="20"/>
-        <v>2020</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Thriller</v>
+        <v>Horror</v>
       </c>
       <c r="D166">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="F166">
         <f t="shared" ca="1" si="18"/>
@@ -5429,25 +5429,25 @@
       </c>
       <c r="H166">
         <f t="shared" ca="1" si="20"/>
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Action</v>
+        <v>Horror</v>
       </c>
       <c r="D167">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>India</v>
+        <v>America</v>
       </c>
       <c r="F167">
         <f t="shared" ca="1" si="18"/>
@@ -5459,25 +5459,25 @@
       </c>
       <c r="H167">
         <f t="shared" ca="1" si="20"/>
-        <v>2009</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Drama</v>
+        <v>Comedy</v>
       </c>
       <c r="D168">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Pakistan</v>
+        <v>America</v>
       </c>
       <c r="F168">
         <f t="shared" ca="1" si="18"/>
@@ -5489,25 +5489,25 @@
       </c>
       <c r="H168">
         <f t="shared" ca="1" si="20"/>
-        <v>2011</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Horror</v>
+        <v>Drama</v>
       </c>
       <c r="D169">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>America</v>
+        <v>Pakistan</v>
       </c>
       <c r="F169">
         <f t="shared" ca="1" si="18"/>
@@ -5519,25 +5519,25 @@
       </c>
       <c r="H169">
         <f t="shared" ca="1" si="20"/>
-        <v>2005</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Horror</v>
+        <v>Action</v>
       </c>
       <c r="D170">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Pakistan</v>
+        <v>America</v>
       </c>
       <c r="F170">
         <f t="shared" ca="1" si="18"/>
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H170">
         <f t="shared" ca="1" si="20"/>
-        <v>2019</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Action</v>
+        <v>Drama</v>
       </c>
       <c r="D171">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>America</v>
+        <v>Pakistan</v>
       </c>
       <c r="F171">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G171" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H171">
         <f t="shared" ca="1" si="20"/>
-        <v>2008</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Thriller</v>
+        <v>Horror</v>
       </c>
       <c r="D172">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="F172">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G172" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H172">
         <f t="shared" ca="1" si="20"/>
@@ -5623,23 +5623,23 @@
       </c>
       <c r="D173">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>India</v>
+        <v>Pakistan</v>
       </c>
       <c r="F173">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G173" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H173">
         <f t="shared" ca="1" si="20"/>
-        <v>2009</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
@@ -5669,25 +5669,25 @@
       </c>
       <c r="H174">
         <f t="shared" ca="1" si="20"/>
-        <v>2009</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Horror</v>
+        <v>Thriller</v>
       </c>
       <c r="D175">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>India</v>
+        <v>America</v>
       </c>
       <c r="F175">
         <f t="shared" ca="1" si="18"/>
@@ -5699,25 +5699,25 @@
       </c>
       <c r="H175">
         <f t="shared" ca="1" si="20"/>
-        <v>2005</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Horror</v>
+        <v>Thriller</v>
       </c>
       <c r="D176">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>America</v>
+        <v>Pakistan</v>
       </c>
       <c r="F176">
         <f t="shared" ca="1" si="18"/>
@@ -5729,17 +5729,17 @@
       </c>
       <c r="H176">
         <f t="shared" ca="1" si="20"/>
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Drama</v>
+        <v>Horror</v>
       </c>
       <c r="D177">
         <f t="shared" ca="1" si="16"/>
@@ -5759,17 +5759,17 @@
       </c>
       <c r="H177">
         <f t="shared" ca="1" si="20"/>
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Action</v>
+        <v>Drama</v>
       </c>
       <c r="D178">
         <f t="shared" ca="1" si="16"/>
@@ -5781,25 +5781,25 @@
       </c>
       <c r="F178">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G178" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H178">
         <f t="shared" ca="1" si="20"/>
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Action</v>
+        <v>Horror</v>
       </c>
       <c r="D179">
         <f t="shared" ca="1" si="16"/>
@@ -5819,17 +5819,17 @@
       </c>
       <c r="H179">
         <f t="shared" ca="1" si="20"/>
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Drama</v>
+        <v>Action</v>
       </c>
       <c r="D180">
         <f t="shared" ca="1" si="16"/>
@@ -5841,15 +5841,15 @@
       </c>
       <c r="F180">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G180" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H180">
         <f t="shared" ca="1" si="20"/>
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
@@ -5871,45 +5871,45 @@
       </c>
       <c r="F181">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G181" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H181">
         <f t="shared" ca="1" si="20"/>
-        <v>2004</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Horror</v>
+        <v>Action</v>
       </c>
       <c r="D182">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F182">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G182" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H182">
         <f t="shared" ca="1" si="20"/>
-        <v>2004</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
@@ -5923,11 +5923,11 @@
       </c>
       <c r="D183">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>Pakistan</v>
       </c>
       <c r="F183">
         <f t="shared" ca="1" si="18"/>
@@ -5939,107 +5939,107 @@
       </c>
       <c r="H183">
         <f t="shared" ca="1" si="20"/>
-        <v>2009</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Drama</v>
+        <v>Horror</v>
       </c>
       <c r="D184">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Pakistan</v>
+        <v>America</v>
       </c>
       <c r="F184">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G184" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H184">
         <f t="shared" ca="1" si="20"/>
-        <v>2000</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Action</v>
+        <v>Thriller</v>
       </c>
       <c r="D185">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Pakistan</v>
+        <v>UK</v>
       </c>
       <c r="F185">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G185" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H185">
         <f t="shared" ca="1" si="20"/>
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Horror</v>
+        <v>Action</v>
       </c>
       <c r="D186">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="F186">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G186" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H186">
         <f t="shared" ca="1" si="20"/>
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Action</v>
+        <v>Horror</v>
       </c>
       <c r="D187">
         <f t="shared" ca="1" si="16"/>
@@ -6059,17 +6059,17 @@
       </c>
       <c r="H187">
         <f t="shared" ca="1" si="20"/>
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Comedy</v>
+        <v>Action</v>
       </c>
       <c r="D188">
         <f t="shared" ca="1" si="16"/>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="H188">
         <f t="shared" ca="1" si="20"/>
-        <v>2008</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.25">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="H189">
         <f t="shared" ca="1" si="20"/>
-        <v>2002</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
@@ -6133,41 +6133,41 @@
       </c>
       <c r="D190">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F190">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G190" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H190">
         <f t="shared" ca="1" si="20"/>
-        <v>2007</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Comedy</v>
+        <v>Drama</v>
       </c>
       <c r="D191">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Pakistan</v>
+        <v>India</v>
       </c>
       <c r="F191">
         <f t="shared" ca="1" si="18"/>
@@ -6179,17 +6179,17 @@
       </c>
       <c r="H191">
         <f t="shared" ca="1" si="20"/>
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Comedy</v>
+        <v>Drama</v>
       </c>
       <c r="D192">
         <f t="shared" ca="1" si="16"/>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="H192">
         <f t="shared" ca="1" si="20"/>
-        <v>2008</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
@@ -6223,23 +6223,23 @@
       </c>
       <c r="D193">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>India</v>
+        <v>America</v>
       </c>
       <c r="F193">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G193" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H193">
         <f t="shared" ca="1" si="20"/>
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
@@ -6253,11 +6253,11 @@
       </c>
       <c r="D194">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="F194">
         <f t="shared" ca="1" si="18"/>
@@ -6269,85 +6269,85 @@
       </c>
       <c r="H194">
         <f t="shared" ca="1" si="20"/>
-        <v>2004</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C195" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Thriller</v>
+        <v>Drama</v>
       </c>
       <c r="D195">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>India</v>
+        <v>America</v>
       </c>
       <c r="F195">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G195" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H195">
         <f t="shared" ca="1" si="20"/>
-        <v>2005</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C196" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Horror</v>
+        <v>Action</v>
       </c>
       <c r="D196">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>Pakistan</v>
       </c>
       <c r="F196">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G196" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H196">
         <f t="shared" ca="1" si="20"/>
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Drama</v>
+        <v>Comedy</v>
       </c>
       <c r="D197">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UK</v>
+        <v>Pakistan</v>
       </c>
       <c r="F197">
         <f t="shared" ca="1" si="18"/>
@@ -6359,7 +6359,7 @@
       </c>
       <c r="H197">
         <f t="shared" ca="1" si="20"/>
-        <v>2000</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
@@ -6373,11 +6373,11 @@
       </c>
       <c r="D198">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="F198">
         <f t="shared" ca="1" si="18"/>
@@ -6389,77 +6389,77 @@
       </c>
       <c r="H198">
         <f t="shared" ca="1" si="20"/>
-        <v>2017</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199">
         <f t="shared" ref="B199:B205" ca="1" si="21">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C199" t="str">
         <f t="shared" ref="C199:C205" ca="1" si="22">VLOOKUP(B199,$L$6:$M$10,2)</f>
-        <v>Comedy</v>
+        <v>Action</v>
       </c>
       <c r="D199">
         <f t="shared" ref="D199:D205" ca="1" si="23">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E199" t="str">
         <f t="shared" ref="E199:E205" ca="1" si="24">VLOOKUP(D199,$N$6:$O$9,2)</f>
-        <v>UK</v>
+        <v>Pakistan</v>
       </c>
       <c r="F199">
         <f t="shared" ref="F199:F205" ca="1" si="25">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G199" t="str">
         <f t="shared" ref="G199:G205" ca="1" si="26">IF(F199=1,"Yes","No")</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H199">
         <f t="shared" ref="H199:H205" ca="1" si="27">RANDBETWEEN(2000,2020)</f>
-        <v>2003</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C200" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Comedy</v>
+        <v>Thriller</v>
       </c>
       <c r="D200">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>UK</v>
+        <v>Pakistan</v>
       </c>
       <c r="F200">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G200" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H200">
         <f t="shared" ca="1" si="27"/>
-        <v>2017</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201">
         <f t="shared" ca="1" si="21"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Thriller</v>
+        <v>Action</v>
       </c>
       <c r="D201">
         <f t="shared" ca="1" si="23"/>
@@ -6479,25 +6479,25 @@
       </c>
       <c r="H201">
         <f t="shared" ca="1" si="27"/>
-        <v>2019</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C202" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Horror</v>
+        <v>Thriller</v>
       </c>
       <c r="D202">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E202" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="F202">
         <f t="shared" ca="1" si="25"/>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="H202">
         <f t="shared" ca="1" si="27"/>
-        <v>2020</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
@@ -6531,55 +6531,55 @@
       </c>
       <c r="F203">
         <f t="shared" ca="1" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G203" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H203">
         <f t="shared" ca="1" si="27"/>
-        <v>2011</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C204" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Action</v>
+        <v>Horror</v>
       </c>
       <c r="D204">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Pakistan</v>
+        <v>America</v>
       </c>
       <c r="F204">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G204" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H204">
         <f t="shared" ca="1" si="27"/>
-        <v>2019</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Drama</v>
+        <v>Horror</v>
       </c>
       <c r="D205">
         <f t="shared" ca="1" si="23"/>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="H205">
         <f t="shared" ca="1" si="27"/>
-        <v>2004</v>
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
